--- a/artfynd/A 54472-2022.xlsx
+++ b/artfynd/A 54472-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112248266</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>78700</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112248307</v>
+        <v>112248267</v>
       </c>
       <c r="B3" t="n">
-        <v>92518</v>
+        <v>78699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2412</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Källmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Philonotis fontana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522776</v>
+        <v>522973</v>
       </c>
       <c r="R3" t="n">
-        <v>6909411</v>
+        <v>6909162</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +866,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -885,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112248267</v>
+        <v>112248307</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>92666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -897,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Källmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Philonotis fontana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -925,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522973</v>
+        <v>522776</v>
       </c>
       <c r="R4" t="n">
-        <v>6909162</v>
+        <v>6909411</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,6 +968,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 54472-2022.xlsx
+++ b/artfynd/A 54472-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112248266</v>
       </c>
       <c r="B2" t="n">
-        <v>78700</v>
+        <v>78714</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>112248267</v>
       </c>
       <c r="B3" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>112248307</v>
       </c>
       <c r="B4" t="n">
-        <v>92666</v>
+        <v>92680</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/artfynd/A 54472-2022.xlsx
+++ b/artfynd/A 54472-2022.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112248267</v>
+        <v>112248307</v>
       </c>
       <c r="B3" t="n">
-        <v>78713</v>
+        <v>92680</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>2412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Källmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Philonotis fontana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>522973</v>
+        <v>522776</v>
       </c>
       <c r="R3" t="n">
-        <v>6909162</v>
+        <v>6909411</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,6 +866,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -884,10 +885,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112248307</v>
+        <v>112248267</v>
       </c>
       <c r="B4" t="n">
-        <v>92680</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,25 +897,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2412</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Källmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Philonotis fontana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +925,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>522776</v>
+        <v>522973</v>
       </c>
       <c r="R4" t="n">
-        <v>6909411</v>
+        <v>6909162</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -968,7 +969,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
